--- a/NoteBook/summary/SCHEDULE_TEAM-CICLO2.xlsx
+++ b/NoteBook/summary/SCHEDULE_TEAM-CICLO2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\tsp\NoteBook\summary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -308,6 +303,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -320,18 +333,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -340,84 +413,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,7 +721,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="G19" sqref="G19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,14 +735,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -770,225 +765,225 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="38" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39">
+      <c r="I3" s="21"/>
+      <c r="J3" s="22">
         <v>41759</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="41" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="38" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="41">
+      <c r="I5" s="21"/>
+      <c r="J5" s="15">
         <v>2</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="29" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="29" t="s">
+      <c r="K10" s="25"/>
+      <c r="L10" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="30"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="30"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="30"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="30"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="31"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>6</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="20">
         <v>41745</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="9">
         <v>12</v>
       </c>
@@ -999,18 +994,18 @@
       <c r="F16" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="16">
         <v>0</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="9">
         <f>G16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="16">
         <v>0</v>
       </c>
-      <c r="K16" s="11"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="9">
         <f>J16</f>
         <v>0</v>
@@ -1020,10 +1015,10 @@
       <c r="A17" s="3">
         <v>7</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="20">
         <v>41752</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="6">
         <v>30</v>
       </c>
@@ -1034,10 +1029,10 @@
       <c r="F17" s="6">
         <v>20.8</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="16">
         <v>50.9</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="6">
         <f>G17+I16</f>
         <v>50.9</v>
@@ -1055,10 +1050,10 @@
       <c r="A18" s="3">
         <v>8</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="20">
         <v>41759</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="6">
         <v>66.5</v>
       </c>
@@ -1069,18 +1064,18 @@
       <c r="F18" s="6">
         <v>45.8</v>
       </c>
-      <c r="G18" s="10">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="G18" s="16">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="H18" s="17"/>
       <c r="I18" s="6">
-        <f t="shared" ref="I18:I19" si="1">G18+I17</f>
-        <v>117</v>
-      </c>
-      <c r="J18" s="10">
+        <f t="shared" ref="I18" si="1">G18+I17</f>
+        <v>127</v>
+      </c>
+      <c r="J18" s="16">
         <v>45.8</v>
       </c>
-      <c r="K18" s="11"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="6">
         <f>J18+L17</f>
         <v>74.8</v>
@@ -1090,10 +1085,10 @@
       <c r="A19" s="3">
         <v>9</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="20">
         <v>41766</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="6">
         <v>36.5</v>
       </c>
@@ -1104,40 +1099,55 @@
       <c r="F19" s="6">
         <v>25.1</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="12">
+      <c r="G20" s="18">
         <f>SUM(G16:H19)</f>
-        <v>117</v>
-      </c>
-      <c r="H20" s="13"/>
+        <v>127</v>
+      </c>
+      <c r="H20" s="19"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="12">
+      <c r="J20" s="18">
         <f>SUM(J16:K19)</f>
         <v>74.8</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="A6:L6"/>
@@ -1154,26 +1164,11 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NoteBook/summary/SCHEDULE_TEAM-CICLO2.xlsx
+++ b/NoteBook/summary/SCHEDULE_TEAM-CICLO2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\tsp\NoteBook\summary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -276,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -303,115 +308,124 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,7 +488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +523,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,7 +735,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:H19"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,14 +749,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -765,19 +779,19 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="21" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="22">
         <v>41759</v>
       </c>
@@ -785,205 +799,205 @@
       <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="21" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="15">
+      <c r="I5" s="39"/>
+      <c r="J5" s="24">
         <v>2</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="44" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="44" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="30" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="31"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="31"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="31"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="31"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="32"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>6</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="36">
         <v>41745</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="9">
         <v>12</v>
       </c>
@@ -994,18 +1008,18 @@
       <c r="F16" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="38">
         <v>0</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="9">
         <f>G16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="38">
         <v>0</v>
       </c>
-      <c r="K16" s="17"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="9">
         <f>J16</f>
         <v>0</v>
@@ -1015,10 +1029,10 @@
       <c r="A17" s="3">
         <v>7</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="36">
         <v>41752</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6">
         <v>30</v>
       </c>
@@ -1029,10 +1043,10 @@
       <c r="F17" s="6">
         <v>20.8</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="38">
         <v>50.9</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="6">
         <f>G17+I16</f>
         <v>50.9</v>
@@ -1050,10 +1064,10 @@
       <c r="A18" s="3">
         <v>8</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="36">
         <v>41759</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6">
         <v>66.5</v>
       </c>
@@ -1064,18 +1078,18 @@
       <c r="F18" s="6">
         <v>45.8</v>
       </c>
-      <c r="G18" s="16">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="H18" s="17"/>
+      <c r="G18" s="38">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="H18" s="37"/>
       <c r="I18" s="6">
-        <f t="shared" ref="I18" si="1">G18+I17</f>
-        <v>127</v>
-      </c>
-      <c r="J18" s="16">
+        <f t="shared" ref="I18:I19" si="1">G18+I17</f>
+        <v>125</v>
+      </c>
+      <c r="J18" s="38">
         <v>45.8</v>
       </c>
-      <c r="K18" s="17"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="6">
         <f>J18+L17</f>
         <v>74.8</v>
@@ -1085,10 +1099,10 @@
       <c r="A19" s="3">
         <v>9</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="36">
         <v>41766</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6">
         <v>36.5</v>
       </c>
@@ -1099,40 +1113,71 @@
       <c r="F19" s="6">
         <v>25.1</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="6"/>
+      <c r="G19" s="38">
+        <v>41.6</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>166.6</v>
+      </c>
+      <c r="J19" s="38">
+        <v>25.1</v>
+      </c>
+      <c r="K19" s="37"/>
+      <c r="L19" s="49">
+        <f>J19+L18</f>
+        <v>99.9</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="18">
+      <c r="G20" s="43">
         <f>SUM(G16:H19)</f>
-        <v>127</v>
-      </c>
-      <c r="H20" s="19"/>
+        <v>166.6</v>
+      </c>
+      <c r="H20" s="44"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="18">
+      <c r="J20" s="47">
         <f>SUM(J16:K19)</f>
-        <v>74.8</v>
-      </c>
-      <c r="K20" s="19"/>
+        <v>99.9</v>
+      </c>
+      <c r="K20" s="48"/>
       <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="G10:H15"/>
@@ -1143,32 +1188,11 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
